--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asen\Dropbox\Programming\Level 2 - Front-end\05.JavaScript-Frameworks-with-AngularJS\Project\IssueTracker-AngularJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asen Santev\Dropbox\Programming\Level 2 - Front-end\05.JavaScript-Frameworks-with-AngularJS\Project\IssueTracker-AngularJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -363,10 +363,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,18 +717,18 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>16</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
